--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A3EFF-219A-448A-89D8-28EB28957BBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7AAEA-CAEE-420C-98AC-2E097C0CE4EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="210">
   <si>
     <t>GSE28997</t>
   </si>
@@ -617,6 +618,42 @@
   </si>
   <si>
     <t>8-15 days of differentiation</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25190712</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26178166</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28432191</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23991827</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26001423</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23926130</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18822150</t>
+  </si>
+  <si>
+    <t>Yokoyama S, Ito Y, Asahara H</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24244171</t>
+  </si>
+  <si>
+    <t>Meng Z, Gong J, Chen Z, Sun J, Xiao Y, Li Y, Liu J, Xu S, Lin JD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sartorelli V</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/16582907</t>
   </si>
 </sst>
 </file>
@@ -1148,28 +1185,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="30"/>
+    <col min="1" max="1" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1239,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -1228,8 +1266,11 @@
       <c r="J2" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>65</v>
       </c>
@@ -1256,38 +1297,44 @@
       <c r="J3" s="36">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
+      <c r="D4" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="26">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>134</v>
@@ -1295,55 +1342,61 @@
       <c r="C5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>148</v>
+      <c r="D5" t="s">
+        <v>184</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
-      <c r="G5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="26">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
+      <c r="J6" s="36">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>134</v>
@@ -1351,25 +1404,28 @@
       <c r="C7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>184</v>
+      <c r="D7" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
+      <c r="G7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>87</v>
       </c>
@@ -1483,7 +1539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>78</v>
       </c>
@@ -1513,7 +1569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -1696,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1728,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
@@ -1760,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1824,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>53</v>
       </c>
@@ -1888,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>54</v>
       </c>
@@ -1920,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
@@ -1952,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
@@ -1984,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -2016,9 +2072,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>136</v>
@@ -2027,30 +2083,33 @@
         <v>13</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="J29" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>136</v>
@@ -2059,30 +2118,33 @@
         <v>13</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J30" s="26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>136</v>
@@ -2091,30 +2153,33 @@
         <v>13</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>41</v>
+      <c r="G31" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="J31" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>136</v>
@@ -2123,30 +2188,33 @@
         <v>13</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="J32" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>136</v>
@@ -2155,30 +2223,33 @@
         <v>13</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>62</v>
+        <v>148</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="J33" s="26">
+        <v>8</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>136</v>
@@ -2187,28 +2258,31 @@
         <v>13</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J34" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>105</v>
       </c>
@@ -2232,7 +2306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>119</v>
       </c>
@@ -2256,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
@@ -2280,7 +2354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>118</v>
       </c>
@@ -2304,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
@@ -2330,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>112</v>
       </c>
@@ -2354,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>109</v>
       </c>
@@ -2377,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>116</v>
       </c>
@@ -2402,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>115</v>
       </c>
@@ -2427,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>108</v>
       </c>
@@ -2451,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>111</v>
       </c>
@@ -2474,7 +2548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>114</v>
       </c>
@@ -2497,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>107</v>
       </c>
@@ -2522,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>117</v>
       </c>
@@ -2545,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>110</v>
       </c>
@@ -2570,9 +2644,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H34">
-    <sortCondition ref="C2:C34"/>
-    <sortCondition ref="B2:B34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:J34">
+    <sortCondition ref="J29:J34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2587,24 +2660,24 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="20"/>
+    <col min="4" max="4" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -2622,7 +2695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -2640,7 +2713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -2658,7 +2731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2676,7 +2749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2694,7 +2767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -2712,7 +2785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>27</v>
       </c>
@@ -2726,7 +2799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>52</v>
       </c>
@@ -2746,7 +2819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2791,7 +2864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
@@ -2805,7 +2878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>76</v>
       </c>
@@ -2826,7 +2899,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>79</v>
       </c>
@@ -2847,7 +2920,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -2868,7 +2941,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
@@ -2890,7 +2963,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2912,7 +2985,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>121</v>
       </c>
@@ -2929,43 +3002,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="23"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
     </row>
